--- a/survey/UML-Based Development of Large-Scale Dataflow Applications_ Survey (Risposte).xlsx
+++ b/survey/UML-Based Development of Large-Scale Dataflow Applications_ Survey (Risposte).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bellerofonte/streamgen/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B48476F-C225-224E-B1A5-141AC3ED0358}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{334CC86D-274B-EF4F-BDCB-E2F0A8BE294C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1999,7 +1999,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/survey/UML-Based Development of Large-Scale Dataflow Applications_ Survey (Risposte).xlsx
+++ b/survey/UML-Based Development of Large-Scale Dataflow Applications_ Survey (Risposte).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bellerofonte/streamgen/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{334CC86D-274B-EF4F-BDCB-E2F0A8BE294C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{126894F8-B069-F54B-A90D-36A9D39B359E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Risposte del modulo 1'!$D$2:$D$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Risposte del modulo 1'!$D$2:$D$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Risposte del modulo 1'!$D$2:$D$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -133,16 +131,16 @@
     <t>cronoassessment</t>
   </si>
   <si>
-    <t>to what extent does StreamGen aid in the development and operations of data-intensive applications?</t>
-  </si>
-  <si>
-    <t>to what extent does StreamGen aid in tackling the technical complexity of data-intensive applications?</t>
-  </si>
-  <si>
     <t>Ratio that Didn't Finish Because of Time</t>
   </si>
   <si>
     <t>Extent of Difficulty Reduction</t>
+  </si>
+  <si>
+    <t>to what extent does StreamGen aids in the development and operations of data-intensive applications?</t>
+  </si>
+  <si>
+    <t>to what extent does StreamGen aids in tackling the technical complexity of data-intensive applications?</t>
   </si>
 </sst>
 </file>
@@ -457,7 +455,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1997,9 +1995,9 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3006,12 +3004,12 @@
     </row>
     <row r="34" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <f>600/28</f>
@@ -3029,19 +3027,19 @@
   <dimension ref="D17:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="17" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
